--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2142155.826532873</v>
+        <v>2139903.746821667</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283169</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738213</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>138.3721243800024</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>69.9176400685913</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -868,13 +868,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>264.9486589497409</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157667</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>127.5660060078352</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>181.7791917664216</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.67804628306391</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>140.9110822997218</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326504049</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.7404406203161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462254</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>150.3341561773478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419835385</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892294</v>
       </c>
       <c r="V19" t="n">
-        <v>40.62253010341785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576191</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>62.6472505928856</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.90286287505416</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.86023999965238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444149</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>134.4525633547246</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176199</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>159.2661870898842</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,19 +3004,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576408</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340489</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016483</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>243.4759147696092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>74.56049207329153</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>12.76515480631789</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141674</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>4.444394634329312</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288606</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>7.069540131684477</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>552.807938939214</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>552.807938939214</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>552.807938939214</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>545.8624381900105</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4373,7 +4373,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1015.34761180106</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>846.4114288731531</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>696.2947894608174</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>548.3816958784242</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1417.78865577483</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1196.9960766313</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559526</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1145.385526619114</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>787.1198280123635</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>787.1198280123635</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>376.133923222756</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4647,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>975.2294612008255</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>806.2932782729187</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>656.1766388605829</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344356</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2294612008255</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1845.410930903096</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1476.448413962684</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1118.182715355933</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1118.182715355933</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>707.1968105663259</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>292.1243604113224</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878907</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903096</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>959.3421218646239</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5021,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400794</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797824</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910817</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580269</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625876</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588916</v>
+        <v>1144.284195611867</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690898</v>
+        <v>916.2946447138493</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703191</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>228.9331431646415</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>562.8579153358621</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.183521551621</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1655.562009178173</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263528</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.730977335621</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232852</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408921</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429817</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578617</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237298</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093767</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,43 +5522,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400871</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121802</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998445</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854722</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648835</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611874</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713857</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1965.532750177311</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811332</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532263</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015259</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362698</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580257</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603199</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2227.361618603199</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.677130397312</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1683.259960360351</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.270409462334</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1234.477830318804</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694709</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615998</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349513</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.345997432835</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>923.4098145049279</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>773.2931750925922</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>625.380081510199</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>478.4901340122886</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.787041406604</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.994462263074</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703082</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832659</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.3159148556</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199797</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.55619999391</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.13902995695</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>244.2098454714573</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714573</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
         <v>175.9033664000582</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7637,43 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7719,7 +7719,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
         <v>95.58405025273905</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>445.6984928076095</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>298.8085453096991</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096991</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518972</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.320130882545</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W46" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822292</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.84421273177867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218874</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>75.37549921168937</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844821532</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>211.5151132204101</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>85.96822242532676</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172147</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.97174018228492</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489159</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.37941682721274</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948072</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>6.257951202384646</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.754401294454</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788841</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>8.661728554218797</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823325</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>151.1491633157456</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124953</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>212.9445005827193</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667956</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>221.2652607547078</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572567944</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.1149342575596</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174907</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.284775254</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752541</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>3.014195044670487e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316944</v>
+      </c>
+      <c r="C4" t="n">
+        <v>91573.95495316938</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316942</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316941</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316945</v>
-      </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181824</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181824</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.920181818</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181804</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181801</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26482,10 +26482,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932997.3580905497</v>
+        <v>-932997.3580905496</v>
       </c>
       <c r="C6" t="n">
         <v>395747.3876370428</v>
       </c>
       <c r="D6" t="n">
-        <v>395747.3876370428</v>
+        <v>395747.3876370431</v>
       </c>
       <c r="E6" t="n">
-        <v>146259.3729621738</v>
+        <v>146224.6350367378</v>
       </c>
       <c r="F6" t="n">
-        <v>471671.8347695291</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="G6" t="n">
-        <v>471671.834769529</v>
+        <v>471637.096844093</v>
       </c>
       <c r="H6" t="n">
-        <v>471671.8347695288</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="I6" t="n">
-        <v>471671.8347695291</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="J6" t="n">
-        <v>254140.6323722514</v>
+        <v>254105.8944468159</v>
       </c>
       <c r="K6" t="n">
-        <v>471671.834769529</v>
+        <v>471637.0968440933</v>
       </c>
       <c r="L6" t="n">
-        <v>471671.8347695291</v>
+        <v>471637.0968440932</v>
       </c>
       <c r="M6" t="n">
-        <v>386616.8068340171</v>
+        <v>386582.0689085815</v>
       </c>
       <c r="N6" t="n">
-        <v>471671.834769529</v>
+        <v>471637.0968440932</v>
       </c>
       <c r="O6" t="n">
-        <v>471671.8347695291</v>
+        <v>471637.0968440932</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.834769529</v>
+        <v>471637.0968440932</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26793,25 +26793,25 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>272.5496012734511</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>75.50340795433995</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>145.9730667037126</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659917</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.86795663873396</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>112.8285726208989</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.090979048378</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>84.79857308931534</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>7.830523968707359e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.480615885324285e-11</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-3.041122909053229e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.704215726633014e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-3.682849172497068e-12</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.701304867754599e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>261.5336801130329</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>630.8026878560991</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486389</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32473,10 +32473,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>491.819738231079</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716332</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>681.5735157229393</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.3747716989719</v>
       </c>
       <c r="M27" t="n">
-        <v>395.1848490935915</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356893</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>690.2058188111466</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>194.518932411124</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33524,7 +33524,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,28 +33731,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>263.7590256391492</v>
+        <v>530.4152909475297</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33761,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>276.9646925441599</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092783</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34205,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897912</v>
       </c>
       <c r="M42" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236479</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,31 +34448,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>699.0496615458081</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191393</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>488.6686539340807</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041944</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36121,10 +36121,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>357.8453308167487</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496653</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>550.231803639606</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190977</v>
       </c>
       <c r="M27" t="n">
-        <v>253.0508151715732</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998946</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558151</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>547.6095743667022</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>55.96455263124987</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>120.5443928316912</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4173135558158</v>
+        <v>399.0735788641963</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096303</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191315</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>150.1270658774932</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>27.13475084531435</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991702</v>
       </c>
       <c r="M42" t="n">
-        <v>529.7947616033042</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683784</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280113</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>556.4534171013637</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
